--- a/Graphes.xlsx
+++ b/Graphes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Khaled\Documents\MEGA\MEGAsync\MA1-PHYS\STAGE\ASTROPART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{718FBA69-618A-42BB-88A5-549E3BF36F1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56437685-48FB-495A-A105-C9FBE586B731}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="9870" xr2:uid="{5D990E86-63BD-420C-A937-46E84C7C52B4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>d</t>
   </si>
@@ -39,14 +39,56 @@
     <t>mean</t>
   </si>
   <si>
-    <t>p-value ?</t>
+    <t>log10sigma</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>event&lt; 2s</t>
+  </si>
+  <si>
+    <t>2s&lt;c&lt;3s</t>
+  </si>
+  <si>
+    <t>2MOINSLOGP</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>4s&lt;c&lt;5s</t>
+  </si>
+  <si>
+    <t>sigma en s</t>
+  </si>
+  <si>
+    <t>moins logp</t>
+  </si>
+  <si>
+    <t>event 3sc&lt;4s</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>event 3&lt;c&lt;4s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +96,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,13 +126,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -129,8 +189,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-BE"/>
-              <a:t>event&lt;2s</a:t>
+              <a:t>D</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-BE" baseline="0"/>
+              <a:t> vs RA for these events</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-BE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -142,26 +207,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -170,8 +215,243 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C734-4872-94B8-89C202B34FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C734-4872-94B8-89C202B34FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -196,120 +476,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$18</c:f>
+              <c:f>Feuil1!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>38.75</c:v>
+                  <c:v>120.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.25</c:v>
+                  <c:v>120.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.25</c:v>
+                  <c:v>120.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.25</c:v>
+                  <c:v>120.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.75</c:v>
+                  <c:v>120.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.75</c:v>
+                  <c:v>121.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.75</c:v>
+                  <c:v>121.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.75</c:v>
+                  <c:v>121.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.75</c:v>
+                  <c:v>121.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.25</c:v>
+                  <c:v>121.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.25</c:v>
+                  <c:v>121.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.25</c:v>
+                  <c:v>121.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.25</c:v>
+                  <c:v>122.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>92.25</c:v>
+                  <c:v>122.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$18</c:f>
+              <c:f>Feuil1!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>18.75</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.25</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.75</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.25</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.75</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.25</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.75</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.25</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.75</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.75</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.25</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.75</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.25</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.75</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,7 +579,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECDC-40A4-8CC7-D91136A985FB}"/>
+              <c16:uniqueId val="{00000004-C734-4872-94B8-89C202B34FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -329,11 +591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="506272704"/>
-        <c:axId val="620326368"/>
+        <c:axId val="1484739455"/>
+        <c:axId val="1561137535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="506272704"/>
+        <c:axId val="1484739455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,12 +652,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620326368"/>
+        <c:crossAx val="1561137535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620326368"/>
+        <c:axId val="1561137535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,44 +714,16 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506272704"/>
+        <c:crossAx val="1484739455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -585,120 +819,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$23:$B$39</c:f>
+              <c:f>Feuil1!$B$43:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3271299999999999</c:v>
+                  <c:v>0.14016513511309239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9802399999999998</c:v>
+                  <c:v>9.9618500440251126E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1712199999999999</c:v>
+                  <c:v>9.7084522740701257E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7519999999999998</c:v>
+                  <c:v>0.11315011508188433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4772599999999998</c:v>
+                  <c:v>9.5323504392051478E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2806299999999999</c:v>
+                  <c:v>9.2909473709510304E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4715099999999999</c:v>
+                  <c:v>0.10832283057429497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0480900000000002</c:v>
+                  <c:v>0.13287858660795426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0258099999999999</c:v>
+                  <c:v>0.10842264554769736</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2278799999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0264700000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7984900000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2307899999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4217499999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0117400000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.83595</c:v>
+                  <c:v>0.10565741960029287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$23:$C$39</c:f>
+              <c:f>Feuil1!$C$43:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0044200000000001</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9994799999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9994000000000001</c:v>
+                  <c:v>2.0001099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9988300000000001</c:v>
+                  <c:v>1.99997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0030899999999998</c:v>
+                  <c:v>1.99996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9978</c:v>
+                  <c:v>1.9999899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9993099999999999</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9987600000000001</c:v>
+                  <c:v>1.99993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.99983</c:v>
+                  <c:v>2.0000800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0022799999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.99919</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9989399999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9984200000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.99977</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9990300000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9994799999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9999899999999999</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +898,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-040C-4F19-ABE6-1FA5A4F054E5}"/>
+              <c16:uniqueId val="{00000000-5797-497B-A31C-E9F39963C0D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -718,11 +910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="626082784"/>
-        <c:axId val="631933392"/>
+        <c:axId val="1397062287"/>
+        <c:axId val="1354338687"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="626082784"/>
+        <c:axId val="1397062287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,12 +971,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631933392"/>
+        <c:crossAx val="1354338687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631933392"/>
+        <c:axId val="1354338687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +1033,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626082784"/>
+        <c:crossAx val="1397062287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -898,6 +1090,582 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE"/>
+              <a:t>ns vs p-value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.8617517223876878E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2350425704957088E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5965100027331951E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2072662838444408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7725805269734053E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2892066561351045E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.837574688163162E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9919546051930281E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7072228523585657E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6923670692426199E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0673617668049102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4575366312150456E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.987998625903115E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6666387518241647E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1535396033068478E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8657475883931325E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$23:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0044200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9994799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9988300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0030899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9993099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9987600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.99983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0022799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.99919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9989399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9984200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.99977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9990300000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9994799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-167E-4A02-BE01-847F3A6B3F75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14016513511309239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9618500440251126E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7084522740701257E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11315011508188433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5323504392051478E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2909473709510304E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10832283057429497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13287858660795426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10842264554769736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10565741960029287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0001099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0000800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-167E-4A02-BE01-847F3A6B3F75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$56:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.5014524660087391E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7753509400583842E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10419574878703176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.313055036778058E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.521234919243689E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.079877723028737E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7480036055170446E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0592149997039794E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15018791908264428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2745848997510886E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1276101672052106E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2957374747103685E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26873856883323027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16157159043845051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$56:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-167E-4A02-BE01-847F3A6B3F75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1490425535"/>
+        <c:axId val="1393281295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1490425535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393281295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1393281295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490425535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -973,121 +1741,111 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$B$23:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$56:$B$73</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2.3271299999999999</c:v>
+                  <c:v>0,095014525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9802399999999998</c:v>
+                  <c:v>0,077753509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1712199999999999</c:v>
+                  <c:v>0,104195749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7519999999999998</c:v>
+                  <c:v>0,04313055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4772599999999998</c:v>
+                  <c:v>0,035212349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2806299999999999</c:v>
+                  <c:v>0,090798777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4715099999999999</c:v>
+                  <c:v>0,037480036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0480900000000002</c:v>
+                  <c:v>0,03059215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0258099999999999</c:v>
+                  <c:v>0,150187919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2278799999999999</c:v>
+                  <c:v>0,062745849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0264700000000002</c:v>
+                  <c:v>0,051276102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2189999999999999</c:v>
+                  <c:v>0,082957375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7984900000000001</c:v>
+                  <c:v>0,268738569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2307899999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4217499999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0117400000000001</c:v>
+                  <c:v>0,16157159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.83595</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>event 3sc&lt;4s</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0,167110985</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$D$23:$D$39</c:f>
+              <c:f>Feuil1!$C$56:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56744.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56744.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56744.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56744.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999899999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56744.9</c:v>
+                  <c:v>1.9999800000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56744.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56744.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56744.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56230</c:v>
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.99997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A08B-4032-8012-128E4FE2E7B9}"/>
+              <c16:uniqueId val="{00000000-6668-4E01-9714-345E3D6CC3CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1107,11 +1865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620091824"/>
-        <c:axId val="554432048"/>
+        <c:axId val="1490425535"/>
+        <c:axId val="1393281295"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620091824"/>
+        <c:axId val="1490425535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,12 +1926,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554432048"/>
+        <c:crossAx val="1393281295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554432048"/>
+        <c:axId val="1393281295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1988,1775 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620091824"/>
+        <c:crossAx val="1490425535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ns vs sigma(s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$23:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0359140955031441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0441520427979734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0450660572057433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0433589420097436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0283802856029927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0498415148511844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0574351496831647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0611670160735316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0337219602831262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0297071834465081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.049044092542158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0596043742478438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0515350238870531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0306085533264489</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0430226570308785</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0401446568600361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$23:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0044200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9994799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9988300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0030899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9993099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9987600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.99983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0022799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.99919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9989399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9984200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.99977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9990300000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9994799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C7B9-46A2-9C79-BD04C6B3DDFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$43:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5623812188667694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5628532704067544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56072972308012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5618502648124362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5725495144415103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5629712968791134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5706546880749266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5636205396423799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5665146196573705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5661600670513058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0001099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0000800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C7B9-46A2-9C79-BD04C6B3DDFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$56:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.4924550715286289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4852199218816438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4810907834996669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4669772688491749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4633787607268882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4932826885589261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.464715010932701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4634815350041093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4645094079423489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4721230280529012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.463995441888672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4652290598346029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4701669416438587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4652290598346029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$56:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C7B9-46A2-9C79-BD04C6B3DDFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1489976351"/>
+        <c:axId val="1486907359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1489976351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486907359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1486907359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489976351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE"/>
+              <a:t>ns vs sigma(s) event&lt;2s</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$23:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0359140955031441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0441520427979734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0450660572057433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0433589420097436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0283802856029927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0498415148511844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0574351496831647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0611670160735316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0337219602831262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0297071834465081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.049044092542158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0596043742478438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0515350238870531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0306085533264489</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0430226570308785</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0401446568600361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$23:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0044200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9994799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9988300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0030899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9993099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9987600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.99983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0022799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.99919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9989399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9984200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.99977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9990300000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9994799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB55-48EA-8D2B-79DDF436BFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1566907359"/>
+        <c:axId val="1637228783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1566907359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637228783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1637228783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1566907359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ns vs sigma(s) 4s&lt;c&lt;5s</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$56:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.4924550715286289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4852199218816438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4810907834996669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4669772688491749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4633787607268882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4932826885589261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.464715010932701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4634815350041093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4645094079423489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4721230280529012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.463995441888672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4652290598346029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4701669416438587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4652290598346029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$56:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9266-4D67-AE6E-782BF07A4094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1489976351"/>
+        <c:axId val="1486907359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1489976351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486907359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1486907359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489976351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE"/>
+              <a:t>ns vs sigma(s) 2s&lt;c&lt;3s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$43:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5623812188667694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5628532704067544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56072972308012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5618502648124362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5725495144415103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5629712968791134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5706546880749266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5636205396423799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5665146196573705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5661600670513058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0001099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0000800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B06-4D0B-BE49-47E18FCC98EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1399294095"/>
+        <c:axId val="1486507535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1399294095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486507535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1486507535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399294095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1406,6 +3932,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2954,20 +5560,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2994,23 +6632,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="10" name="Graphique 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB15F87-74AB-4B93-A6AD-1CFABFED9676}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9865B62C-7CBA-4FDF-8571-CF84B84B9F7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,23 +6668,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="11" name="Graphique 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B4C013-C5AF-4527-9ABD-2F975CEAF997}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1281D9C5-BE81-40C9-815C-27D92C73E266}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,6 +6697,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Graphique 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E301234-48B9-4B98-8C6E-E7C50473860E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C4EB65-2BBE-434A-928F-3855D85D574B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAAC9EB-7E76-4A06-BE41-50457B2CE904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA78610-CE6F-4F12-853B-BEFA9F658A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364C2557-F042-4E93-B58A-556BE1257172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3364,135 +7182,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD650D4-1FC9-4FE1-8A3E-CCD9FCC4FF1E}">
-  <dimension ref="B1:D39"/>
+  <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>38.75</v>
       </c>
       <c r="C2">
         <v>18.75</v>
       </c>
+      <c r="D2">
+        <v>89.75</v>
+      </c>
+      <c r="E2">
+        <v>11.75</v>
+      </c>
+      <c r="F2">
+        <v>120.25</v>
+      </c>
+      <c r="G2">
+        <v>12.25</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>39.25</v>
       </c>
       <c r="C3">
         <v>18.25</v>
       </c>
+      <c r="D3">
+        <v>90.25</v>
+      </c>
+      <c r="E3">
+        <v>10.75</v>
+      </c>
+      <c r="F3">
+        <v>120.25</v>
+      </c>
+      <c r="G3">
+        <v>12.75</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>39.25</v>
       </c>
       <c r="C4">
         <v>18.75</v>
       </c>
+      <c r="D4">
+        <v>90.25</v>
+      </c>
+      <c r="E4">
+        <v>11.25</v>
+      </c>
+      <c r="F4">
+        <v>120.75</v>
+      </c>
+      <c r="G4">
+        <v>11.75</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>39.25</v>
       </c>
       <c r="C5">
         <v>19.25</v>
       </c>
+      <c r="D5">
+        <v>90.25</v>
+      </c>
+      <c r="E5">
+        <v>11.75</v>
+      </c>
+      <c r="F5">
+        <v>120.75</v>
+      </c>
+      <c r="G5">
+        <v>12.25</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>39.75</v>
       </c>
       <c r="C6">
         <v>17.75</v>
       </c>
+      <c r="D6">
+        <v>90.75</v>
+      </c>
+      <c r="E6">
+        <v>10.75</v>
+      </c>
+      <c r="F6">
+        <v>120.75</v>
+      </c>
+      <c r="G6">
+        <v>12.75</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>39.75</v>
       </c>
       <c r="C7">
         <v>18.25</v>
       </c>
+      <c r="D7">
+        <v>90.75</v>
+      </c>
+      <c r="E7">
+        <v>11.25</v>
+      </c>
+      <c r="F7">
+        <v>121.25</v>
+      </c>
+      <c r="G7">
+        <v>11.75</v>
+      </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>39.75</v>
       </c>
       <c r="C8">
         <v>18.75</v>
       </c>
+      <c r="D8">
+        <v>90.75</v>
+      </c>
+      <c r="E8">
+        <v>11.75</v>
+      </c>
+      <c r="F8">
+        <v>121.25</v>
+      </c>
+      <c r="G8">
+        <v>12.25</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>39.75</v>
       </c>
       <c r="C9">
         <v>19.25</v>
       </c>
+      <c r="D9">
+        <v>91.25</v>
+      </c>
+      <c r="E9">
+        <v>10.25</v>
+      </c>
+      <c r="F9">
+        <v>121.25</v>
+      </c>
+      <c r="G9">
+        <v>12.75</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>39.75</v>
       </c>
       <c r="C10">
         <v>19.75</v>
       </c>
+      <c r="D10">
+        <v>91.25</v>
+      </c>
+      <c r="E10">
+        <v>10.75</v>
+      </c>
+      <c r="F10">
+        <v>121.75</v>
+      </c>
+      <c r="G10">
+        <v>11.75</v>
+      </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>40.25</v>
       </c>
       <c r="C11">
         <v>17.75</v>
       </c>
+      <c r="D11">
+        <v>91.25</v>
+      </c>
+      <c r="E11">
+        <v>11.25</v>
+      </c>
+      <c r="F11">
+        <v>121.75</v>
+      </c>
+      <c r="G11">
+        <v>12.25</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>40.25</v>
       </c>
       <c r="C12">
         <v>18.25</v>
       </c>
+      <c r="D12" s="1">
+        <v>92.25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="F12">
+        <v>121.75</v>
+      </c>
+      <c r="G12">
+        <v>12.75</v>
+      </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>40.25</v>
       </c>
       <c r="C13">
         <v>18.75</v>
       </c>
+      <c r="F13">
+        <v>121.75</v>
+      </c>
+      <c r="G13">
+        <v>13.25</v>
+      </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>40.25</v>
       </c>
       <c r="C14">
         <v>19.25</v>
       </c>
+      <c r="F14">
+        <v>122.25</v>
+      </c>
+      <c r="G14">
+        <v>12.75</v>
+      </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>40.75</v>
       </c>
       <c r="C15">
         <v>18.25</v>
       </c>
+      <c r="F15">
+        <v>122.25</v>
+      </c>
+      <c r="G15">
+        <v>12.75</v>
+      </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>40.75</v>
       </c>
@@ -3500,25 +7484,53 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>40.75</v>
       </c>
       <c r="C17">
         <v>19.25</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>92.25</v>
-      </c>
-      <c r="C18">
-        <v>18.75</v>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="F18">
+        <v>122.25</v>
+      </c>
+      <c r="G18">
+        <v>12.75</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>210*333</f>
+        <v>69930</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>-2*LOG(B23)</f>
+        <v>2.3271300000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -3526,10 +7538,26 @@
       <c r="D22" t="s">
         <v>3</v>
       </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2.3271299999999999</v>
+        <f>10^(-(1/2)*G23)</f>
+        <v>6.8617517223876878E-2</v>
       </c>
       <c r="C23">
         <v>2.0044200000000001</v>
@@ -3537,10 +7565,28 @@
       <c r="D23">
         <v>56744.9</v>
       </c>
+      <c r="E23">
+        <v>-4.9211900000000002</v>
+      </c>
+      <c r="F23">
+        <v>3.94902</v>
+      </c>
+      <c r="G23">
+        <v>2.3271299999999999</v>
+      </c>
+      <c r="H23">
+        <f>(10^E23)*24*60*60</f>
+        <v>1.0359140955031441</v>
+      </c>
+      <c r="I23">
+        <f>-LOG10(B23)</f>
+        <v>1.1635650000000002</v>
+      </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>2.9802399999999998</v>
+        <f t="shared" ref="B24:B38" si="0">10^(-(1/2)*G24)</f>
+        <v>3.2350425704957088E-2</v>
       </c>
       <c r="C24">
         <v>1.9994799999999999</v>
@@ -3548,10 +7594,28 @@
       <c r="D24">
         <v>56744.9</v>
       </c>
+      <c r="E24">
+        <v>-4.9177499999999998</v>
+      </c>
+      <c r="F24">
+        <v>3.94876</v>
+      </c>
+      <c r="G24">
+        <v>2.9802399999999998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H39" si="1">(10^E24)*24*60*60</f>
+        <v>1.0441520427979734</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I38" si="2">-LOG10(B24)</f>
+        <v>1.4901200000000001</v>
+      </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>3.1712199999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.5965100027331951E-2</v>
       </c>
       <c r="C25">
         <v>1.9994000000000001</v>
@@ -3559,10 +7623,28 @@
       <c r="D25">
         <v>56744.9</v>
       </c>
+      <c r="E25">
+        <v>-4.91737</v>
+      </c>
+      <c r="F25">
+        <v>3.9487299999999999</v>
+      </c>
+      <c r="G25">
+        <v>3.1712199999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1.0450660572057433</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.5856100000000002</v>
+      </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>2.7519999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.2072662838444408E-2</v>
       </c>
       <c r="C26">
         <v>1.9988300000000001</v>
@@ -3570,10 +7652,28 @@
       <c r="D26">
         <v>56744.9</v>
       </c>
+      <c r="E26">
+        <v>-4.9180799999999998</v>
+      </c>
+      <c r="F26">
+        <v>3.9489200000000002</v>
+      </c>
+      <c r="G26">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1.0433589420097436</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.3760000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>2.4772599999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.7725805269734053E-2</v>
       </c>
       <c r="C27">
         <v>2.0030899999999998</v>
@@ -3581,10 +7681,28 @@
       <c r="D27">
         <v>56744.9</v>
       </c>
+      <c r="E27">
+        <v>-4.9243600000000001</v>
+      </c>
+      <c r="F27">
+        <v>3.9489299999999998</v>
+      </c>
+      <c r="G27">
+        <v>2.4772599999999998</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1.0283802856029927</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1.2386300000000001</v>
+      </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>3.2806299999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.2892066561351045E-2</v>
       </c>
       <c r="C28">
         <v>1.9978</v>
@@ -3592,10 +7710,28 @@
       <c r="D28">
         <v>56744.9</v>
       </c>
+      <c r="E28">
+        <v>-4.9153900000000004</v>
+      </c>
+      <c r="F28">
+        <v>3.9487100000000002</v>
+      </c>
+      <c r="G28">
+        <v>3.2806299999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1.0498415148511844</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1.6403150000000002</v>
+      </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>3.4715099999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.837574688163162E-2</v>
       </c>
       <c r="C29">
         <v>1.9993099999999999</v>
@@ -3603,10 +7739,28 @@
       <c r="D29">
         <v>56744.9</v>
       </c>
+      <c r="E29">
+        <v>-4.9122599999999998</v>
+      </c>
+      <c r="F29">
+        <v>3.9494400000000001</v>
+      </c>
+      <c r="G29">
+        <v>3.4715099999999999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1.0574351496831647</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1.7357550000000002</v>
+      </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>3.0480900000000002</v>
+        <f t="shared" si="0"/>
+        <v>2.9919546051930281E-2</v>
       </c>
       <c r="C30">
         <v>1.9987600000000001</v>
@@ -3614,10 +7768,28 @@
       <c r="D30">
         <v>56744.9</v>
       </c>
+      <c r="E30">
+        <v>-4.91073</v>
+      </c>
+      <c r="F30">
+        <v>3.9497800000000001</v>
+      </c>
+      <c r="G30">
+        <v>3.0480900000000002</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1.0611670160735316</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>1.5240450000000003</v>
+      </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>2.0258099999999999</v>
+        <f t="shared" si="0"/>
+        <v>9.7072228523585657E-2</v>
       </c>
       <c r="C31">
         <v>1.99983</v>
@@ -3625,10 +7797,28 @@
       <c r="D31">
         <v>56744.9</v>
       </c>
+      <c r="E31">
+        <v>-4.92211</v>
+      </c>
+      <c r="F31">
+        <v>3.9492799999999999</v>
+      </c>
+      <c r="G31">
+        <v>2.0258099999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>1.0337219602831262</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>1.0129049999999999</v>
+      </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>2.2278799999999999</v>
+        <f t="shared" si="0"/>
+        <v>7.6923670692426199E-2</v>
       </c>
       <c r="C32">
         <v>2.0022799999999998</v>
@@ -3636,10 +7826,28 @@
       <c r="D32">
         <v>56744.9</v>
       </c>
+      <c r="E32">
+        <v>-4.9238</v>
+      </c>
+      <c r="F32">
+        <v>3.9499499999999999</v>
+      </c>
+      <c r="G32">
+        <v>2.2278799999999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1.0297071834465081</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>1.1139400000000002</v>
+      </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>3.0264700000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.0673617668049102E-2</v>
       </c>
       <c r="C33">
         <v>1.99919</v>
@@ -3647,10 +7855,28 @@
       <c r="D33">
         <v>56744.9</v>
       </c>
+      <c r="E33">
+        <v>-4.9157200000000003</v>
+      </c>
+      <c r="F33">
+        <v>3.9496600000000002</v>
+      </c>
+      <c r="G33">
+        <v>3.0264700000000002</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.049044092542158</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>1.5132350000000003</v>
+      </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>3.2189999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.4575366312150456E-2</v>
       </c>
       <c r="C34">
         <v>1.9989399999999999</v>
@@ -3658,10 +7884,28 @@
       <c r="D34">
         <v>56744.9</v>
       </c>
+      <c r="E34">
+        <v>-4.9113699999999998</v>
+      </c>
+      <c r="F34">
+        <v>3.9487299999999999</v>
+      </c>
+      <c r="G34">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.0596043742478438</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>1.6095000000000002</v>
+      </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>2.7984900000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.987998625903115E-2</v>
       </c>
       <c r="C35">
         <v>1.9984200000000001</v>
@@ -3669,10 +7913,28 @@
       <c r="D35">
         <v>56744.9</v>
       </c>
+      <c r="E35">
+        <v>-4.9146900000000002</v>
+      </c>
+      <c r="F35">
+        <v>3.9496699999999998</v>
+      </c>
+      <c r="G35">
+        <v>2.7984900000000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1.0515350238870531</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>1.3992450000000001</v>
+      </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>2.2307899999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.6666387518241647E-2</v>
       </c>
       <c r="C36">
         <v>1.99977</v>
@@ -3680,10 +7942,28 @@
       <c r="D36">
         <v>56744.9</v>
       </c>
+      <c r="E36">
+        <v>-4.9234200000000001</v>
+      </c>
+      <c r="F36">
+        <v>3.9499900000000001</v>
+      </c>
+      <c r="G36">
+        <v>2.2307899999999998</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1.0306085533264489</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1.1153949999999999</v>
+      </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>2.4217499999999998</v>
+        <f t="shared" si="0"/>
+        <v>6.1535396033068478E-2</v>
       </c>
       <c r="C37">
         <v>1.9990300000000001</v>
@@ -3691,10 +7971,28 @@
       <c r="D37">
         <v>56744.9</v>
       </c>
+      <c r="E37">
+        <v>-4.9182199999999998</v>
+      </c>
+      <c r="F37">
+        <v>3.9489800000000002</v>
+      </c>
+      <c r="G37">
+        <v>2.4217499999999998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1.0430226570308785</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.2108750000000001</v>
+      </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>2.0117400000000001</v>
+        <f t="shared" si="0"/>
+        <v>9.8657475883931325E-2</v>
       </c>
       <c r="C38">
         <v>1.9994799999999999</v>
@@ -3702,20 +8000,704 @@
       <c r="D38">
         <v>56744.9</v>
       </c>
+      <c r="E38">
+        <v>-4.9194199999999997</v>
+      </c>
+      <c r="F38">
+        <v>3.9490699999999999</v>
+      </c>
+      <c r="G38">
+        <v>2.0117400000000001</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.0401446568600361</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.0058700000000003</v>
+      </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1.83595</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>56230</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-4.7393099999999997</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>1.5747214471983599</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>10^(-(1/2)*G43)</f>
+        <v>0.14016513511309239</v>
+      </c>
+      <c r="C43">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D43">
+        <v>56857.4</v>
+      </c>
+      <c r="E43">
+        <v>-4.5278700000000001</v>
+      </c>
+      <c r="F43">
+        <v>3.9493999999999998</v>
+      </c>
+      <c r="G43">
+        <v>1.70672</v>
+      </c>
+      <c r="H43">
+        <f>(10^E43)*24*60*60</f>
+        <v>2.5623812188667694</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" ref="B44:B52" si="3">10^(-(1/2)*G44)</f>
+        <v>9.9618500440251126E-2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>56857.4</v>
+      </c>
+      <c r="E44">
+        <v>-4.5277900000000004</v>
+      </c>
+      <c r="F44">
+        <v>3.9491499999999999</v>
+      </c>
+      <c r="G44">
+        <v>2.00332</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H52" si="4">(10^E44)*24*60*60</f>
+        <v>2.5628532704067544</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>9.7084522740701257E-2</v>
+      </c>
+      <c r="C45">
+        <v>2.0001099999999998</v>
+      </c>
+      <c r="D45">
+        <v>56857.4</v>
+      </c>
+      <c r="E45">
+        <v>-4.5281500000000001</v>
+      </c>
+      <c r="F45">
+        <v>3.9494400000000001</v>
+      </c>
+      <c r="G45">
+        <v>2.0257000000000001</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>2.56072972308012</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>0.11315011508188433</v>
+      </c>
+      <c r="C46">
+        <v>1.99997</v>
+      </c>
+      <c r="D46">
+        <v>56857.4</v>
+      </c>
+      <c r="E46">
+        <v>-4.5279600000000002</v>
+      </c>
+      <c r="F46">
+        <v>3.9499900000000001</v>
+      </c>
+      <c r="G46">
+        <v>1.89269</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>2.5618502648124362</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>9.5323504392051478E-2</v>
+      </c>
+      <c r="C47">
+        <v>1.99996</v>
+      </c>
+      <c r="D47">
+        <v>56857.4</v>
+      </c>
+      <c r="E47">
+        <v>-4.5261500000000003</v>
+      </c>
+      <c r="F47">
+        <v>3.9493100000000001</v>
+      </c>
+      <c r="G47">
+        <v>2.0415999999999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>2.5725495144415103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>9.2909473709510304E-2</v>
+      </c>
+      <c r="C48">
         <v>1.9999899999999999</v>
       </c>
-      <c r="D39">
-        <v>56230</v>
+      <c r="D48">
+        <v>56857.4</v>
+      </c>
+      <c r="E48">
+        <v>-4.5277700000000003</v>
+      </c>
+      <c r="F48">
+        <v>3.9492099999999999</v>
+      </c>
+      <c r="G48">
+        <v>2.0638800000000002</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>2.5629712968791134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>0.10832283057429497</v>
+      </c>
+      <c r="C49">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D49">
+        <v>56857.4</v>
+      </c>
+      <c r="E49">
+        <v>-4.5264699999999998</v>
+      </c>
+      <c r="F49">
+        <v>3.9497599999999999</v>
+      </c>
+      <c r="G49">
+        <v>1.9305600000000001</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>2.5706546880749266</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>0.13287858660795426</v>
+      </c>
+      <c r="C50">
+        <v>1.99993</v>
+      </c>
+      <c r="D50">
+        <v>56857.4</v>
+      </c>
+      <c r="E50">
+        <v>-4.52766</v>
+      </c>
+      <c r="F50">
+        <v>3.9494799999999999</v>
+      </c>
+      <c r="G50">
+        <v>1.75309</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>2.5636205396423799</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>0.10842264554769736</v>
+      </c>
+      <c r="C51">
+        <v>2.0000800000000001</v>
+      </c>
+      <c r="D51">
+        <v>56857.4</v>
+      </c>
+      <c r="E51">
+        <v>-4.5271699999999999</v>
+      </c>
+      <c r="F51">
+        <v>3.9492500000000001</v>
+      </c>
+      <c r="G51">
+        <v>1.9297599999999999</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>2.5665146196573705</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>0.10565741960029287</v>
+      </c>
+      <c r="C52">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D52">
+        <v>56857.4</v>
+      </c>
+      <c r="E52">
+        <v>-4.5272300000000003</v>
+      </c>
+      <c r="F52">
+        <v>3.9492799999999999</v>
+      </c>
+      <c r="G52">
+        <v>1.9521999999999999</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>2.5661600670513058</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>10^(-(1/2)*G56)</f>
+        <v>9.5014524660087391E-2</v>
+      </c>
+      <c r="C56">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D56">
+        <v>56665.2</v>
+      </c>
+      <c r="E56">
+        <v>-4.2840299999999996</v>
+      </c>
+      <c r="F56">
+        <v>3.9497</v>
+      </c>
+      <c r="G56">
+        <v>2.0444200000000001</v>
+      </c>
+      <c r="H56">
+        <f>(10^E56)*24*60*60</f>
+        <v>4.4924550715286289</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" ref="B57:B70" si="5">10^(-(1/2)*G57)</f>
+        <v>7.7753509400583842E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D57">
+        <v>56665.2</v>
+      </c>
+      <c r="E57">
+        <v>-4.2847299999999997</v>
+      </c>
+      <c r="F57">
+        <v>3.94916</v>
+      </c>
+      <c r="G57">
+        <v>2.2185600000000001</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57:H69" si="6">(10^E57)*24*60*60</f>
+        <v>4.4852199218816438</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>0.10419574878703176</v>
+      </c>
+      <c r="C58">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D58">
+        <v>56665.2</v>
+      </c>
+      <c r="E58">
+        <v>-4.2851299999999997</v>
+      </c>
+      <c r="F58">
+        <v>3.9493</v>
+      </c>
+      <c r="G58">
+        <v>1.9642999999999999</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>4.4810907834996669</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>4.313055036778058E-2</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>56665.2</v>
+      </c>
+      <c r="E59">
+        <v>-4.2865000000000002</v>
+      </c>
+      <c r="F59">
+        <v>3.9491100000000001</v>
+      </c>
+      <c r="G59">
+        <v>2.7304300000000001</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>4.4669772688491749</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>3.521234919243689E-2</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>56665.2</v>
+      </c>
+      <c r="E60">
+        <v>-4.2868500000000003</v>
+      </c>
+      <c r="F60">
+        <v>3.9490099999999999</v>
+      </c>
+      <c r="G60">
+        <v>2.9066100000000001</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>4.4633787607268882</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>9.079877723028737E-2</v>
+      </c>
+      <c r="C61">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D61">
+        <v>56665.2</v>
+      </c>
+      <c r="E61">
+        <v>-4.2839499999999999</v>
+      </c>
+      <c r="F61">
+        <v>3.9497399999999998</v>
+      </c>
+      <c r="G61">
+        <v>2.0838399999999999</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>4.4932826885589261</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>3.7480036055170446E-2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>56665.2</v>
+      </c>
+      <c r="E62">
+        <v>-4.2867199999999999</v>
+      </c>
+      <c r="F62">
+        <v>3.9490500000000002</v>
+      </c>
+      <c r="G62">
+        <v>2.8523999999999998</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>4.464715010932701</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>3.0592149997039794E-2</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>56665.2</v>
+      </c>
+      <c r="E63">
+        <v>-4.2868399999999998</v>
+      </c>
+      <c r="F63">
+        <v>3.9489700000000001</v>
+      </c>
+      <c r="G63">
+        <v>3.0287799999999998</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>4.4634815350041093</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>0.15018791908264428</v>
+      </c>
+      <c r="C64">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D64">
+        <v>56665.2</v>
+      </c>
+      <c r="E64">
+        <v>-4.28674</v>
+      </c>
+      <c r="F64">
+        <v>3.9496600000000002</v>
+      </c>
+      <c r="G64">
+        <v>1.64673</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>4.4645094079423489</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>6.2745848997510886E-2</v>
+      </c>
+      <c r="C65">
+        <v>1.9999899999999999</v>
+      </c>
+      <c r="D65">
+        <v>56665.2</v>
+      </c>
+      <c r="E65">
+        <v>-4.2859999999999996</v>
+      </c>
+      <c r="F65">
+        <v>3.9499900000000001</v>
+      </c>
+      <c r="G65">
+        <v>2.40483</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>4.4721230280529012</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>5.1276101672052106E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.9999899999999999</v>
+      </c>
+      <c r="D66">
+        <v>56665.2</v>
+      </c>
+      <c r="E66">
+        <v>-4.2867899999999999</v>
+      </c>
+      <c r="F66">
+        <v>3.9491200000000002</v>
+      </c>
+      <c r="G66">
+        <v>2.5801699999999999</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>4.463995441888672</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>8.2957374747103685E-2</v>
+      </c>
+      <c r="C67">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D67">
+        <v>56665.2</v>
+      </c>
+      <c r="E67">
+        <v>-4.28667</v>
+      </c>
+      <c r="F67">
+        <v>3.94997</v>
+      </c>
+      <c r="G67">
+        <v>2.16229</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>4.4652290598346029</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>0.26873856883323027</v>
+      </c>
+      <c r="C68">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D68">
+        <v>56665.2</v>
+      </c>
+      <c r="E68">
+        <v>-4.2861900000000004</v>
+      </c>
+      <c r="F68">
+        <v>3.94964</v>
+      </c>
+      <c r="G68">
+        <v>1.14134</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>4.4701669416438587</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>0.16157159043845051</v>
+      </c>
+      <c r="C69">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="D69">
+        <v>56665.2</v>
+      </c>
+      <c r="E69">
+        <v>-4.28667</v>
+      </c>
+      <c r="F69">
+        <v>3.94936</v>
+      </c>
+      <c r="G69">
+        <v>1.58327</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>4.4652290598346029</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>10^(-(1/2)*G73)</f>
+        <v>0.16711098535631447</v>
+      </c>
+      <c r="C73">
+        <v>1.99997</v>
+      </c>
+      <c r="D73">
+        <v>56336.800000000003</v>
+      </c>
+      <c r="E73">
+        <v>-4.34511</v>
+      </c>
+      <c r="F73">
+        <v>2.65002</v>
+      </c>
+      <c r="G73">
+        <v>1.55399</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="F17:G17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Graphes.xlsx
+++ b/Graphes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Khaled\Documents\MEGA\MEGAsync\MA1-PHYS\STAGE\ASTROPART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56437685-48FB-495A-A105-C9FBE586B731}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87C05461-A2C7-4404-84D3-F06B14A1CE68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="9870" xr2:uid="{5D990E86-63BD-420C-A937-46E84C7C52B4}"/>
   </bookViews>
@@ -7184,8 +7184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD650D4-1FC9-4FE1-8A3E-CCD9FCC4FF1E}">
   <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" ref="B57:B70" si="5">10^(-(1/2)*G57)</f>
+        <f t="shared" ref="B57:B69" si="5">10^(-(1/2)*G57)</f>
         <v>7.7753509400583842E-2</v>
       </c>
       <c r="C57">

--- a/Graphes.xlsx
+++ b/Graphes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Khaled\Documents\MEGA\MEGAsync\MA1-PHYS\STAGE\ASTROPART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87C05461-A2C7-4404-84D3-F06B14A1CE68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B0D61-C0B7-49AC-BD12-A0B6593765DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="9870" xr2:uid="{5D990E86-63BD-420C-A937-46E84C7C52B4}"/>
   </bookViews>
@@ -7184,8 +7184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD650D4-1FC9-4FE1-8A3E-CCD9FCC4FF1E}">
   <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Graphes.xlsx
+++ b/Graphes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Khaled\Documents\MEGA\MEGAsync\MA1-PHYS\STAGE\ASTROPART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B0D61-C0B7-49AC-BD12-A0B6593765DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31307E2-1F4D-45A9-A3E2-8459A08A09F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="9870" xr2:uid="{5D990E86-63BD-420C-A937-46E84C7C52B4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>d</t>
   </si>
@@ -1124,7 +1124,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-BE"/>
-              <a:t>ns vs p-value</a:t>
+              <a:t>ns vs -logp-value</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1154,57 +1154,57 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$23:$B$38</c:f>
+              <c:f>Feuil1!$I$23:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.8617517223876878E-2</c:v>
+                  <c:v>1.1635650000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2350425704957088E-2</c:v>
+                  <c:v>1.4901200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5965100027331951E-2</c:v>
+                  <c:v>1.5856100000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2072662838444408E-2</c:v>
+                  <c:v>1.3760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7725805269734053E-2</c:v>
+                  <c:v>1.2386300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2892066561351045E-2</c:v>
+                  <c:v>1.6403150000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.837574688163162E-2</c:v>
+                  <c:v>1.7357550000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9919546051930281E-2</c:v>
+                  <c:v>1.5240450000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7072228523585657E-2</c:v>
+                  <c:v>1.0129049999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6923670692426199E-2</c:v>
+                  <c:v>1.1139400000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0673617668049102E-2</c:v>
+                  <c:v>1.5132350000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4575366312150456E-2</c:v>
+                  <c:v>1.6095000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.987998625903115E-2</c:v>
+                  <c:v>1.3992450000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6666387518241647E-2</c:v>
+                  <c:v>1.1153949999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1535396033068478E-2</c:v>
+                  <c:v>1.2108750000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.8657475883931325E-2</c:v>
+                  <c:v>1.0058700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,39 +1285,39 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$43:$B$52</c:f>
+              <c:f>Feuil1!$I$43:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14016513511309239</c:v>
+                  <c:v>0.85336000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9618500440251126E-2</c:v>
+                  <c:v>1.00166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7084522740701257E-2</c:v>
+                  <c:v>1.01285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11315011508188433</c:v>
+                  <c:v>0.94634500000000021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5323504392051478E-2</c:v>
+                  <c:v>1.0208000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2909473709510304E-2</c:v>
+                  <c:v>1.0319400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10832283057429497</c:v>
+                  <c:v>0.96528000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13287858660795426</c:v>
+                  <c:v>0.87654500000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10842264554769736</c:v>
+                  <c:v>0.96488000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10565741960029287</c:v>
+                  <c:v>0.97610000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,51 +1395,51 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$56:$B$69</c:f>
+              <c:f>Feuil1!$I$56:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>9.5014524660087391E-2</c:v>
+                  <c:v>1.0222100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7753509400583842E-2</c:v>
+                  <c:v>1.1092800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10419574878703176</c:v>
+                  <c:v>0.98215000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.313055036778058E-2</c:v>
+                  <c:v>1.3652150000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.521234919243689E-2</c:v>
+                  <c:v>1.4533050000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.079877723028737E-2</c:v>
+                  <c:v>1.0419200000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7480036055170446E-2</c:v>
+                  <c:v>1.4262000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0592149997039794E-2</c:v>
+                  <c:v>1.5143900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15018791908264428</c:v>
+                  <c:v>0.82336500000000012</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2745848997510886E-2</c:v>
+                  <c:v>1.2024150000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1276101672052106E-2</c:v>
+                  <c:v>1.2900850000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2957374747103685E-2</c:v>
+                  <c:v>1.0811450000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26873856883323027</c:v>
+                  <c:v>0.57067000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16157159043845051</c:v>
+                  <c:v>0.79163499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3812,6 +3812,587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE"/>
+              <a:t>mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-BE" baseline="0"/>
+              <a:t> vs -logp</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$23:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1635650000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4901200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5856100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2386300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6403150000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7357550000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5240450000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0129049999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1139400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5132350000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6095000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3992450000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1153949999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2108750000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0058700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$23:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56744.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E1DA-4FB6-A938-B00AFB47778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$43:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85336000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94634500000000021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0208000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0319400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96528000000000014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87654500000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96488000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97610000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$43:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56857.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E1DA-4FB6-A938-B00AFB47778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$56:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0222100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1092800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98215000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3652150000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4533050000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0419200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5143900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82336500000000012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2024150000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2900850000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0811450000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57067000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79163499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$56:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56665.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E1DA-4FB6-A938-B00AFB47778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420533919"/>
+        <c:axId val="525572319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420533919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525572319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525572319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420533919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6668,16 +7249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6740,16 +7321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6877,6 +7458,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8C7074-F81B-46A2-9D53-49B902DEED74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7184,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD650D4-1FC9-4FE1-8A3E-CCD9FCC4FF1E}">
   <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8065,6 +8682,10 @@
         <f>(10^E43)*24*60*60</f>
         <v>2.5623812188667694</v>
       </c>
+      <c r="I43">
+        <f>-LOG10(B43)</f>
+        <v>0.85336000000000001</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -8090,6 +8711,10 @@
         <f t="shared" ref="H44:H52" si="4">(10^E44)*24*60*60</f>
         <v>2.5628532704067544</v>
       </c>
+      <c r="I44">
+        <f t="shared" ref="I44:I52" si="5">-LOG10(B44)</f>
+        <v>1.00166</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -8115,6 +8740,10 @@
         <f t="shared" si="4"/>
         <v>2.56072972308012</v>
       </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>1.01285</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -8140,6 +8769,10 @@
         <f t="shared" si="4"/>
         <v>2.5618502648124362</v>
       </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>0.94634500000000021</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -8165,6 +8798,10 @@
         <f t="shared" si="4"/>
         <v>2.5725495144415103</v>
       </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>1.0208000000000002</v>
+      </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -8190,8 +8827,12 @@
         <f t="shared" si="4"/>
         <v>2.5629712968791134</v>
       </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>1.0319400000000001</v>
+      </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="3"/>
         <v>0.10832283057429497</v>
@@ -8215,8 +8856,12 @@
         <f t="shared" si="4"/>
         <v>2.5706546880749266</v>
       </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>0.96528000000000014</v>
+      </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="3"/>
         <v>0.13287858660795426</v>
@@ -8240,8 +8885,12 @@
         <f t="shared" si="4"/>
         <v>2.5636205396423799</v>
       </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>0.87654500000000013</v>
+      </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="3"/>
         <v>0.10842264554769736</v>
@@ -8265,8 +8914,12 @@
         <f t="shared" si="4"/>
         <v>2.5665146196573705</v>
       </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>0.96488000000000007</v>
+      </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="3"/>
         <v>0.10565741960029287</v>
@@ -8290,8 +8943,12 @@
         <f t="shared" si="4"/>
         <v>2.5661600670513058</v>
       </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>0.97610000000000008</v>
+      </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -8300,14 +8957,8 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="I55" t="s">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <f>10^(-(1/2)*G56)</f>
         <v>9.5014524660087391E-2</v>
@@ -8331,10 +8982,14 @@
         <f>(10^E56)*24*60*60</f>
         <v>4.4924550715286289</v>
       </c>
+      <c r="I56">
+        <f>-LOG10(B56)</f>
+        <v>1.0222100000000001</v>
+      </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" ref="B57:B69" si="5">10^(-(1/2)*G57)</f>
+        <f t="shared" ref="B57:B69" si="6">10^(-(1/2)*G57)</f>
         <v>7.7753509400583842E-2</v>
       </c>
       <c r="C57">
@@ -8353,13 +9008,17 @@
         <v>2.2185600000000001</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H69" si="6">(10^E57)*24*60*60</f>
+        <f t="shared" ref="H57:H69" si="7">(10^E57)*24*60*60</f>
         <v>4.4852199218816438</v>
       </c>
+      <c r="I57">
+        <f t="shared" ref="I57:I69" si="8">-LOG10(B57)</f>
+        <v>1.1092800000000003</v>
+      </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10419574878703176</v>
       </c>
       <c r="C58">
@@ -8378,13 +9037,17 @@
         <v>1.9642999999999999</v>
       </c>
       <c r="H58">
+        <f t="shared" si="7"/>
+        <v>4.4810907834996669</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="8"/>
+        <v>0.98215000000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59">
         <f t="shared" si="6"/>
-        <v>4.4810907834996669</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f t="shared" si="5"/>
         <v>4.313055036778058E-2</v>
       </c>
       <c r="C59">
@@ -8403,13 +9066,17 @@
         <v>2.7304300000000001</v>
       </c>
       <c r="H59">
+        <f t="shared" si="7"/>
+        <v>4.4669772688491749</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="8"/>
+        <v>1.3652150000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60">
         <f t="shared" si="6"/>
-        <v>4.4669772688491749</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f t="shared" si="5"/>
         <v>3.521234919243689E-2</v>
       </c>
       <c r="C60">
@@ -8428,13 +9095,17 @@
         <v>2.9066100000000001</v>
       </c>
       <c r="H60">
+        <f t="shared" si="7"/>
+        <v>4.4633787607268882</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="8"/>
+        <v>1.4533050000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61">
         <f t="shared" si="6"/>
-        <v>4.4633787607268882</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f t="shared" si="5"/>
         <v>9.079877723028737E-2</v>
       </c>
       <c r="C61">
@@ -8453,13 +9124,17 @@
         <v>2.0838399999999999</v>
       </c>
       <c r="H61">
+        <f t="shared" si="7"/>
+        <v>4.4932826885589261</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>1.0419200000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62">
         <f t="shared" si="6"/>
-        <v>4.4932826885589261</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f t="shared" si="5"/>
         <v>3.7480036055170446E-2</v>
       </c>
       <c r="C62">
@@ -8478,13 +9153,17 @@
         <v>2.8523999999999998</v>
       </c>
       <c r="H62">
+        <f t="shared" si="7"/>
+        <v>4.464715010932701</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="8"/>
+        <v>1.4262000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63">
         <f t="shared" si="6"/>
-        <v>4.464715010932701</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f t="shared" si="5"/>
         <v>3.0592149997039794E-2</v>
       </c>
       <c r="C63">
@@ -8503,13 +9182,17 @@
         <v>3.0287799999999998</v>
       </c>
       <c r="H63">
+        <f t="shared" si="7"/>
+        <v>4.4634815350041093</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="8"/>
+        <v>1.5143900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64">
         <f t="shared" si="6"/>
-        <v>4.4634815350041093</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <f t="shared" si="5"/>
         <v>0.15018791908264428</v>
       </c>
       <c r="C64">
@@ -8528,13 +9211,17 @@
         <v>1.64673</v>
       </c>
       <c r="H64">
+        <f t="shared" si="7"/>
+        <v>4.4645094079423489</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="8"/>
+        <v>0.82336500000000012</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65">
         <f t="shared" si="6"/>
-        <v>4.4645094079423489</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <f t="shared" si="5"/>
         <v>6.2745848997510886E-2</v>
       </c>
       <c r="C65">
@@ -8553,13 +9240,17 @@
         <v>2.40483</v>
       </c>
       <c r="H65">
+        <f t="shared" si="7"/>
+        <v>4.4721230280529012</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="8"/>
+        <v>1.2024150000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66">
         <f t="shared" si="6"/>
-        <v>4.4721230280529012</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <f t="shared" si="5"/>
         <v>5.1276101672052106E-2</v>
       </c>
       <c r="C66">
@@ -8578,13 +9269,17 @@
         <v>2.5801699999999999</v>
       </c>
       <c r="H66">
+        <f t="shared" si="7"/>
+        <v>4.463995441888672</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="8"/>
+        <v>1.2900850000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67">
         <f t="shared" si="6"/>
-        <v>4.463995441888672</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <f t="shared" si="5"/>
         <v>8.2957374747103685E-2</v>
       </c>
       <c r="C67">
@@ -8603,13 +9298,17 @@
         <v>2.16229</v>
       </c>
       <c r="H67">
+        <f t="shared" si="7"/>
+        <v>4.4652290598346029</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="8"/>
+        <v>1.0811450000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68">
         <f t="shared" si="6"/>
-        <v>4.4652290598346029</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <f t="shared" si="5"/>
         <v>0.26873856883323027</v>
       </c>
       <c r="C68">
@@ -8628,13 +9327,17 @@
         <v>1.14134</v>
       </c>
       <c r="H68">
+        <f t="shared" si="7"/>
+        <v>4.4701669416438587</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>0.57067000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69">
         <f t="shared" si="6"/>
-        <v>4.4701669416438587</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <f t="shared" si="5"/>
         <v>0.16157159043845051</v>
       </c>
       <c r="C69">
@@ -8653,11 +9356,15 @@
         <v>1.58327</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4652290598346029</v>
       </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>0.79163499999999998</v>
+      </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>13</v>
       </c>
@@ -8667,7 +9374,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73">
         <f>10^(-(1/2)*G73)</f>
         <v>0.16711098535631447</v>
@@ -8686,6 +9393,10 @@
       </c>
       <c r="G73">
         <v>1.55399</v>
+      </c>
+      <c r="I73">
+        <f>-LOG10(B73)</f>
+        <v>0.7769950000000001</v>
       </c>
     </row>
   </sheetData>
